--- a/data/2022-08-08/SCW Weekly Comp 2022-08-08 (Responses).xlsx
+++ b/data/2022-08-08/SCW Weekly Comp 2022-08-08 (Responses).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="201">
   <si>
     <t>Timestamp</t>
   </si>
@@ -593,6 +593,27 @@
   </si>
   <si>
     <t>1:07.40</t>
+  </si>
+  <si>
+    <t>Ed Connell</t>
+  </si>
+  <si>
+    <t>2018CONN04</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/events/825089031814345/?post_id=828351328154782&amp;view=permalink</t>
+  </si>
+  <si>
+    <t>3:30.95</t>
+  </si>
+  <si>
+    <t>3:44.23</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/events/825089031814345/?post_id=828350898154825&amp;view=permalink</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/events/1202320373645710/?post_id=1205640813313666&amp;view=permalink</t>
   </si>
 </sst>
 </file>
@@ -3487,6 +3508,129 @@
         <v>57.94</v>
       </c>
     </row>
+    <row r="59">
+      <c r="A59" s="2">
+        <v>44795.50081965278</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="BA59" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="BB59" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="BC59" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="BD59" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="BE59" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="BF59" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="BG59" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2">
+        <v>44795.50139839121</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="O60" s="3">
+        <v>18.31</v>
+      </c>
+      <c r="P60" s="3">
+        <v>17.92</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>16.68</v>
+      </c>
+      <c r="R60" s="3">
+        <v>17.92</v>
+      </c>
+      <c r="S60" s="3">
+        <v>19.91</v>
+      </c>
+      <c r="T60" s="3">
+        <v>16.68</v>
+      </c>
+      <c r="U60" s="3">
+        <v>18.05</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2">
+        <v>44795.502340011575</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="CC61" s="3">
+        <v>17.57</v>
+      </c>
+      <c r="CD61" s="3">
+        <v>15.28</v>
+      </c>
+      <c r="CE61" s="3">
+        <v>15.72</v>
+      </c>
+      <c r="CF61" s="3">
+        <v>16.08</v>
+      </c>
+      <c r="CG61" s="3">
+        <v>17.41</v>
+      </c>
+      <c r="CH61" s="3">
+        <v>15.28</v>
+      </c>
+      <c r="CI61" s="3">
+        <v>16.4</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="F2"/>
@@ -3546,7 +3690,10 @@
     <hyperlink r:id="rId55" ref="F56"/>
     <hyperlink r:id="rId56" ref="F57"/>
     <hyperlink r:id="rId57" ref="F58"/>
+    <hyperlink r:id="rId58" ref="F59"/>
+    <hyperlink r:id="rId59" ref="F60"/>
+    <hyperlink r:id="rId60" ref="F61"/>
   </hyperlinks>
-  <drawing r:id="rId58"/>
+  <drawing r:id="rId61"/>
 </worksheet>
 </file>